--- a/addxp-nextjs/public/redirects.xlsx
+++ b/addxp-nextjs/public/redirects.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\Addxp-2025\addxp-nextjs\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8D28567-9CDF-4D60-8123-63CC8027854B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F3F04D0-57BE-40A7-A6BC-BFC4AD6E743F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5F6600C6-C08A-47D2-B3C8-F7A43562057B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="60">
   <si>
     <t>source</t>
   </si>
@@ -137,9 +137,6 @@
     <t>https://www.addact.net/about-us</t>
   </si>
   <si>
-    <t>https://www.addact.net/contact</t>
-  </si>
-  <si>
     <t>https://www.addact.net/careers</t>
   </si>
   <si>
@@ -189,6 +186,36 @@
   </si>
   <si>
     <t>https://www.addact.net/press-releases/:slug</t>
+  </si>
+  <si>
+    <t>https://www.addact.net/contact-us</t>
+  </si>
+  <si>
+    <t>/strapi-plugin-development-service</t>
+  </si>
+  <si>
+    <t>/sitecore-xm-cloud-service</t>
+  </si>
+  <si>
+    <t>https://www.addact.net/sitecore-cms-development/sitecore-xm-cloud-services</t>
+  </si>
+  <si>
+    <t>/ui-ux-designer</t>
+  </si>
+  <si>
+    <t>https://www.addact.net/careers/ui-ux-designer</t>
+  </si>
+  <si>
+    <t>https://www.addact.net/terms-of-use</t>
+  </si>
+  <si>
+    <t>/terms-conditions</t>
+  </si>
+  <si>
+    <t>/privacy-policy</t>
+  </si>
+  <si>
+    <t>https://www.addact.net/privacy-policy</t>
   </si>
 </sst>
 </file>
@@ -620,8 +647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C59FA00F-2D8F-4BC7-B234-D60C0BA408AE}">
   <dimension ref="A1:C332"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -647,7 +674,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>3</v>
@@ -658,7 +685,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>3</v>
@@ -669,7 +696,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>3</v>
@@ -680,7 +707,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>3</v>
@@ -757,7 +784,7 @@
         <v>14</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>3</v>
@@ -768,7 +795,7 @@
         <v>15</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>3</v>
@@ -779,7 +806,7 @@
         <v>16</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>3</v>
@@ -790,7 +817,7 @@
         <v>17</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>3</v>
@@ -801,7 +828,7 @@
         <v>18</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>3</v>
@@ -812,7 +839,7 @@
         <v>19</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>3</v>
@@ -823,7 +850,7 @@
         <v>20</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>3</v>
@@ -834,7 +861,7 @@
         <v>21</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>3</v>
@@ -845,7 +872,7 @@
         <v>22</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>3</v>
@@ -856,7 +883,7 @@
         <v>23</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>3</v>
@@ -867,7 +894,7 @@
         <v>24</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>3</v>
@@ -878,7 +905,7 @@
         <v>25</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>3</v>
@@ -889,7 +916,7 @@
         <v>26</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>3</v>
@@ -897,10 +924,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>3</v>
@@ -908,10 +935,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>3</v>
@@ -919,38 +946,62 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>50</v>
-      </c>
       <c r="C27" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="8"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="6"/>
+      <c r="A28" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="8"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="6"/>
+      <c r="A29" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="8"/>
-      <c r="B30" s="3"/>
+      <c r="A30" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="C30" s="6"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="8"/>
-      <c r="B31" s="3"/>
+      <c r="A31" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="C31" s="6"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="8"/>
-      <c r="B32" s="3"/>
+      <c r="A32" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="C32" s="6"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -2504,6 +2555,11 @@
     <hyperlink ref="B25" r:id="rId47" xr:uid="{A48A081D-3186-4C74-902F-5EFA0CE2C49E}"/>
     <hyperlink ref="B26" r:id="rId48" xr:uid="{40F86B24-CC3D-4AEF-AA3F-D612FEF74648}"/>
     <hyperlink ref="B27" r:id="rId49" xr:uid="{3A3A6019-0BA1-45B9-805D-F0984AFE15AC}"/>
+    <hyperlink ref="B28" r:id="rId50" xr:uid="{E5E6CA14-B307-423A-B35C-0B550BD7EA1E}"/>
+    <hyperlink ref="B29" r:id="rId51" xr:uid="{B3F744C7-382F-418C-B346-7FE2F119474D}"/>
+    <hyperlink ref="B30" r:id="rId52" xr:uid="{B6A9A631-9045-4BF5-848E-712B9EBE1183}"/>
+    <hyperlink ref="A31" r:id="rId53" tooltip="https://www.addxp.com/terms-conditions" display="https://www.addxp.com/terms-conditions" xr:uid="{1242C3BF-9A61-4D9F-98ED-C0787FC771FC}"/>
+    <hyperlink ref="B32" r:id="rId54" xr:uid="{996D4E4A-4491-48BF-8F3E-7814D05228F0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/addxp-nextjs/public/redirects.xlsx
+++ b/addxp-nextjs/public/redirects.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\Addxp-2025\addxp-nextjs\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F3F04D0-57BE-40A7-A6BC-BFC4AD6E743F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DDC4FD6-046C-498C-AAFB-C7BAEA94F54A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5F6600C6-C08A-47D2-B3C8-F7A43562057B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="69">
   <si>
     <t>source</t>
   </si>
@@ -216,13 +216,40 @@
   </si>
   <si>
     <t>https://www.addact.net/privacy-policy</t>
+  </si>
+  <si>
+    <t>https://www.addact.net/strapi-cms-development/hire-strapi-developer</t>
+  </si>
+  <si>
+    <t>/strapi-migration-service</t>
+  </si>
+  <si>
+    <t>/infographic/upgrade-or-rebuild-umbraco-decision</t>
+  </si>
+  <si>
+    <t>/strapi-cms-development-service</t>
+  </si>
+  <si>
+    <t>/strapi-cms-consultation-service</t>
+  </si>
+  <si>
+    <t>/strapi-ui-design-service</t>
+  </si>
+  <si>
+    <t>/strapi-support-maintenance-service</t>
+  </si>
+  <si>
+    <t>/strapi-upgrade-service</t>
+  </si>
+  <si>
+    <t>/hire-strapi-developer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -249,6 +276,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF467886"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -281,7 +316,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -310,6 +345,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -648,7 +684,7 @@
   <dimension ref="A1:C332"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -984,7 +1020,9 @@
       <c r="B30" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C30" s="6"/>
+      <c r="C30" s="6" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
@@ -993,7 +1031,9 @@
       <c r="B31" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C31" s="6"/>
+      <c r="C31" s="6" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="8" t="s">
@@ -1002,47 +1042,97 @@
       <c r="B32" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C32" s="6"/>
+      <c r="C32" s="6" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="8"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="6"/>
+      <c r="A33" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="8"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="6"/>
+      <c r="A34" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="8"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="6"/>
+      <c r="A35" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="8"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="6"/>
+      <c r="A36" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="8"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="6"/>
+      <c r="A37" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="8"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="6"/>
+      <c r="A38" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="8"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="6"/>
+      <c r="A39" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="8"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="6"/>
+      <c r="A40" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="8"/>
@@ -2560,6 +2650,15 @@
     <hyperlink ref="B30" r:id="rId52" xr:uid="{B6A9A631-9045-4BF5-848E-712B9EBE1183}"/>
     <hyperlink ref="A31" r:id="rId53" tooltip="https://www.addxp.com/terms-conditions" display="https://www.addxp.com/terms-conditions" xr:uid="{1242C3BF-9A61-4D9F-98ED-C0787FC771FC}"/>
     <hyperlink ref="B32" r:id="rId54" xr:uid="{996D4E4A-4491-48BF-8F3E-7814D05228F0}"/>
+    <hyperlink ref="B33" r:id="rId55" xr:uid="{12D7DFCC-E520-4A68-8EFD-86157827217A}"/>
+    <hyperlink ref="B34" r:id="rId56" xr:uid="{DDB6D384-D0C1-4818-A1A8-C45008C08E37}"/>
+    <hyperlink ref="B35" r:id="rId57" xr:uid="{05A90C2E-17A0-4BBC-BCBE-A519FA741CB4}"/>
+    <hyperlink ref="B36" r:id="rId58" xr:uid="{9B8BE149-C628-4F5B-82B5-CCF0635BDE44}"/>
+    <hyperlink ref="B37" r:id="rId59" xr:uid="{F8197ADE-0B80-4DB8-A556-A10807E415C5}"/>
+    <hyperlink ref="B38" r:id="rId60" xr:uid="{E845D7EE-30CC-4A42-8D93-0815DF0C0FBB}"/>
+    <hyperlink ref="B39" r:id="rId61" xr:uid="{30C6C5E0-1BFC-4EAB-9278-ED06DA131CA6}"/>
+    <hyperlink ref="B40" r:id="rId62" xr:uid="{28E893A7-7524-468A-AB98-FDD1EC378CC4}"/>
+    <hyperlink ref="A40" r:id="rId63" display="https://www.addxp.com/hire-strapi-developer" xr:uid="{17E1622B-412A-4E30-A4ED-866BE979BAB5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
